--- a/config_10.26/shoping_config.xlsx
+++ b/config_10.26/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -40,6 +40,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>个人用户:</t>
@@ -48,6 +49,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -62,6 +64,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>个人用户:</t>
@@ -70,6 +73,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -84,6 +88,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>个人用户:</t>
@@ -92,6 +97,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,6 +122,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>86400（秒），1，1（小时） （每1天，购买1次，1点重置）
@@ -134,6 +141,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>个人用户:</t>
@@ -142,6 +150,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -167,6 +176,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>个人用户:</t>
@@ -175,6 +185,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -199,6 +210,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>个人用户:</t>
@@ -207,6 +219,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -219,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5688" uniqueCount="1957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5779" uniqueCount="1997">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -265,6 +278,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,6 +289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,6 +311,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,6 +322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -321,6 +338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -331,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -341,6 +360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -488,6 +508,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -498,6 +519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -508,6 +530,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,6 +552,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,6 +574,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -570,6 +596,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,6 +607,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,6 +618,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -611,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,6 +651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,6 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,6 +684,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -673,6 +706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -683,6 +717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -693,6 +728,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,6 +753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -727,6 +764,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -737,6 +775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,6 +794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -765,6 +805,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -789,6 +830,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -799,6 +841,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,6 +866,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,6 +877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,6 +899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -864,6 +910,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -885,6 +932,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,6 +943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,6 +971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -932,6 +982,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,6 +1007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -966,6 +1018,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -987,6 +1040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -997,6 +1051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1007,6 +1062,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1022,6 +1078,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,6 +1089,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1042,6 +1100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1057,6 +1116,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1067,6 +1127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,6 +1138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1092,6 +1154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1102,6 +1165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1112,6 +1176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1127,6 +1192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1137,6 +1203,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,6 +1214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1162,6 +1230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1172,6 +1241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,6 +1252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1200,6 +1271,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1210,6 +1282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1220,6 +1293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1541,6 +1615,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"10张千元赛门票","完成任务得</t>
@@ -1550,6 +1625,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1559,6 +1635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>00红包"</t>
@@ -2308,6 +2385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>50000,5</t>
@@ -2317,6 +2395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2436,6 +2515,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"jing_bi","jing_bi</t>
@@ -2445,6 +2525,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","</t>
@@ -2454,6 +2535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>shop_gold_sum</t>
@@ -2463,6 +2545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>",</t>
@@ -2483,6 +2566,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>首冲9</t>
@@ -2492,6 +2576,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9</t>
@@ -2501,6 +2586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>8元加赠</t>
@@ -2518,6 +2604,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>首冲249</t>
@@ -2527,6 +2614,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>8元加赠</t>
@@ -5928,6 +6016,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5938,6 +6027,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5948,6 +6038,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5958,6 +6049,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5968,6 +6060,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5986,6 +6079,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5996,6 +6090,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6006,6 +6101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6114,6 +6210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6124,6 +6221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6134,6 +6232,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6146,6 +6245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6156,6 +6256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6168,6 +6269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6178,6 +6280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6260,9 +6363,6 @@
     <t>{type="permission_class",class_value = "buy_gift_shop_v4" }</t>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "integral_gift_buy_v1" }</t>
   </si>
   <si>
@@ -6307,6 +6407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6317,6 +6418,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6327,6 +6429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6423,6 +6526,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6433,6 +6537,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6454,6 +6559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6464,6 +6570,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6479,6 +6586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6489,6 +6597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6499,6 +6608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6544,6 +6654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6554,6 +6665,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6701,6 +6813,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6711,6 +6824,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6855,6 +6969,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>600000</t>
@@ -7095,6 +7210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5000000</t>
@@ -7349,79 +7465,242 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,1,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,2,2,2,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,3,3,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400000,6,6,6,200000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,3,3,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,4,4,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,2,5,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600000,4,12,12,300000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,5,5,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,2,6,6,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,3,7,7,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>34400000,6,18,18,1000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,8,8,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,2,9,9,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,5,10,10,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>79400000,8,27,27,2000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归礼遇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归用户超值礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","狂暴*3","子弹加速*3",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","18万金币","狂暴*4","子弹加速*4",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","28万金币","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"960万金币","56万金币","狂暴*12","子弹加速*12","30万鱼币",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","30万金币","狂暴*5","子弹加速*5",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","60万金币","狂暴*6","子弹加速*6",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","128万金币","狂暴*7","子弹加速*7",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3440万金币","218万金币","狂暴*18","子弹加速*18","100万鱼币",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","68万金币","狂暴*8","子弹加速*8",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","138万金币","狂暴*9","子弹加速*9",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","348万金币","狂暴*10","子弹加速*10",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7940万金币","554万金币","狂暴*27","子弹加速*27","200万鱼币",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
+    <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
+    <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>600000,1,1,1,</t>
+    <t>1800000,100000,3,3,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1000000,2,2,2,</t>
+    <t>3000000,180000,4,4,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1800000,3,3,3,</t>
+    <t>4800000,280000,5,5,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3400000,6,6,6,200000,</t>
+    <t>9600000,560000,12,12,300000,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1800000,1,3,3,</t>
+    <t>4800000,300000,5,5,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3000000,1,4,4,</t>
+    <t>9800000,600000,6,6,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,2,5,5,</t>
+    <t>19800000,1280000,7,7,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>9600000,4,12,12,300000,</t>
+    <t>34400000,2180000,18,18,1000000,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,1,5,5,</t>
+    <t>9800000,680000,8,8,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>9800000,2,6,6,</t>
+    <t>19800000,1380000,9,9,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,3,7,7,</t>
+    <t>49800000,3480000,10,10,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>34400000,6,18,18,1000000,</t>
+    <t>79400000,5540000,27,27,2000000,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>9800000,1,8,8,</t>
+    <t>86400,1,0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,2,9,9,</t>
+    <t>86400,1,0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>49800000,5,10,10,</t>
+    <t>{type="permission_class",class_value = "buy_gift_shop_v8" }</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>79400000,8,27,27,2000000,</t>
+    <t>{type="permission_class",class_value = "come_back_value_gift2" }</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift3" }</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift1" }</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7441,22 +7720,26 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7464,24 +7747,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7659,7 +7946,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7981,6 +8268,15 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13873,13 +14169,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO724"/>
+  <dimension ref="A1:AO737"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W669" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="P711" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y671" sqref="Y671"/>
+      <selection pane="bottomRight" activeCell="R735" sqref="R735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -18393,7 +18689,7 @@
         <v>351</v>
       </c>
       <c r="K77" s="83" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="M77" s="28">
         <v>-20</v>
@@ -18417,7 +18713,7 @@
         <v>353</v>
       </c>
       <c r="X77" s="83" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="Y77" s="79" t="s">
         <v>182</v>
@@ -56071,10 +56367,10 @@
         <v>1</v>
       </c>
       <c r="G655" s="90" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H655" s="104" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="K655" s="90" t="s">
         <v>1606</v>
@@ -56139,7 +56435,7 @@
         <v>1</v>
       </c>
       <c r="G656" s="89" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H656" s="105"/>
       <c r="K656" s="90" t="s">
@@ -56205,7 +56501,7 @@
         <v>1</v>
       </c>
       <c r="G657" s="89" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H657" s="105"/>
       <c r="K657" s="90" t="s">
@@ -56271,7 +56567,7 @@
         <v>1</v>
       </c>
       <c r="G658" s="89" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H658" s="105"/>
       <c r="K658" s="90" t="s">
@@ -56337,7 +56633,7 @@
         <v>1</v>
       </c>
       <c r="G659" s="89" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H659" s="105"/>
       <c r="K659" s="90" t="s">
@@ -56403,7 +56699,7 @@
         <v>1</v>
       </c>
       <c r="G660" s="89" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H660" s="105"/>
       <c r="K660" s="90" t="s">
@@ -56469,7 +56765,7 @@
         <v>1</v>
       </c>
       <c r="G661" s="89" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H661" s="105"/>
       <c r="K661" s="90" t="s">
@@ -57174,10 +57470,10 @@
         <v>1</v>
       </c>
       <c r="G671" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H671" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J671" s="91" t="s">
         <v>1538</v>
@@ -57245,10 +57541,10 @@
         <v>1</v>
       </c>
       <c r="G672" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H672" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J672" s="91" t="s">
         <v>1538</v>
@@ -57316,10 +57612,10 @@
         <v>1</v>
       </c>
       <c r="G673" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H673" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J673" s="91" t="s">
         <v>1538</v>
@@ -57387,10 +57683,10 @@
         <v>1</v>
       </c>
       <c r="G674" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H674" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J674" s="91" t="s">
         <v>1545</v>
@@ -57458,10 +57754,10 @@
         <v>1</v>
       </c>
       <c r="G675" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H675" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J675" s="91" t="s">
         <v>1545</v>
@@ -57529,10 +57825,10 @@
         <v>1</v>
       </c>
       <c r="G676" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H676" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J676" s="91" t="s">
         <v>1545</v>
@@ -57600,10 +57896,10 @@
         <v>1</v>
       </c>
       <c r="G677" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H677" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J677" s="91" t="s">
         <v>1552</v>
@@ -57671,10 +57967,10 @@
         <v>1</v>
       </c>
       <c r="G678" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H678" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J678" s="91" t="s">
         <v>1552</v>
@@ -57742,10 +58038,10 @@
         <v>1</v>
       </c>
       <c r="G679" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H679" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J679" s="91" t="s">
         <v>1552</v>
@@ -57813,10 +58109,10 @@
         <v>1</v>
       </c>
       <c r="G680" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H680" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J680" s="91" t="s">
         <v>1441</v>
@@ -57884,10 +58180,10 @@
         <v>1</v>
       </c>
       <c r="G681" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H681" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J681" s="91" t="s">
         <v>1441</v>
@@ -57955,10 +58251,10 @@
         <v>1</v>
       </c>
       <c r="G682" s="91" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H682" s="91" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="J682" s="91" t="s">
         <v>1441</v>
@@ -58029,7 +58325,7 @@
         <v>1646</v>
       </c>
       <c r="H683" s="102" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K683" s="28" t="s">
         <v>1572</v>
@@ -58427,7 +58723,7 @@
         <v>1648</v>
       </c>
       <c r="H689" s="102" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="K689" s="28" t="s">
         <v>1572</v>
@@ -58822,13 +59118,13 @@
         <v>1</v>
       </c>
       <c r="G695" s="84" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="J695" s="84" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K695" s="84" t="s">
         <v>1846</v>
-      </c>
-      <c r="K695" s="84" t="s">
-        <v>1847</v>
       </c>
       <c r="M695" s="33">
         <v>-31</v>
@@ -58840,19 +59136,19 @@
         <v>0</v>
       </c>
       <c r="P695" s="84" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="Q695" s="35">
         <v>600</v>
       </c>
       <c r="R695" s="84" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="S695" s="86" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="X695" s="84" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="Y695" s="35">
         <v>99999999</v>
@@ -58867,13 +59163,13 @@
         <v>85</v>
       </c>
       <c r="AC695" s="84" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AD695" s="84" t="s">
         <v>1855</v>
       </c>
-      <c r="AD695" s="84" t="s">
-        <v>1856</v>
-      </c>
       <c r="AE695" s="85" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="AI695" s="35">
         <v>1</v>
@@ -58899,13 +59195,13 @@
         <v>1</v>
       </c>
       <c r="G696" s="84" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="J696" s="84" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="K696" s="84" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="M696" s="33">
         <v>-31</v>
@@ -58917,19 +59213,19 @@
         <v>0</v>
       </c>
       <c r="P696" s="84" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="Q696" s="35">
         <v>1000</v>
       </c>
       <c r="R696" s="84" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="S696" s="86" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="X696" s="84" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="Y696" s="35">
         <v>99999999</v>
@@ -58944,13 +59240,13 @@
         <v>85</v>
       </c>
       <c r="AC696" s="84" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AD696" s="84" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="AE696" s="85" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AI696" s="35">
         <v>1</v>
@@ -58976,13 +59272,13 @@
         <v>1</v>
       </c>
       <c r="G697" s="84" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J697" s="84" t="s">
         <v>1845</v>
       </c>
-      <c r="J697" s="84" t="s">
-        <v>1846</v>
-      </c>
       <c r="K697" s="84" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="M697" s="33">
         <v>-31</v>
@@ -58994,19 +59290,19 @@
         <v>0</v>
       </c>
       <c r="P697" s="84" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="Q697" s="35">
         <v>4800</v>
       </c>
       <c r="R697" s="84" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="S697" s="86" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="X697" s="84" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="Y697" s="35">
         <v>99999999</v>
@@ -59021,13 +59317,13 @@
         <v>85</v>
       </c>
       <c r="AC697" s="84" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AD697" s="84" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="AE697" s="85" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="AI697" s="35">
         <v>1</v>
@@ -59053,10 +59349,10 @@
         <v>1</v>
       </c>
       <c r="G698" s="97" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H698" s="104" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="K698" s="93" t="s">
         <v>1606</v>
@@ -59068,7 +59364,7 @@
         <v>0</v>
       </c>
       <c r="O698" s="93" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="P698" s="93" t="s">
         <v>170</v>
@@ -59121,7 +59417,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="96" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H699" s="105"/>
       <c r="K699" s="93" t="s">
@@ -59187,7 +59483,7 @@
         <v>1</v>
       </c>
       <c r="G700" s="96" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H700" s="105"/>
       <c r="K700" s="93" t="s">
@@ -59253,7 +59549,7 @@
         <v>1</v>
       </c>
       <c r="G701" s="96" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H701" s="105"/>
       <c r="K701" s="93" t="s">
@@ -59319,7 +59615,7 @@
         <v>1</v>
       </c>
       <c r="G702" s="96" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H702" s="105"/>
       <c r="K702" s="93" t="s">
@@ -59385,7 +59681,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="96" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H703" s="105"/>
       <c r="K703" s="93" t="s">
@@ -59451,7 +59747,7 @@
         <v>1</v>
       </c>
       <c r="G704" s="96" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H704" s="105"/>
       <c r="K704" s="93" t="s">
@@ -59479,7 +59775,7 @@
         <v>1115</v>
       </c>
       <c r="X704" s="95" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="Y704" s="93">
         <v>99999999</v>
@@ -59517,13 +59813,13 @@
         <v>1</v>
       </c>
       <c r="G705" s="35" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J705" s="35" t="s">
         <v>1878</v>
       </c>
-      <c r="J705" s="35" t="s">
-        <v>1879</v>
-      </c>
       <c r="K705" s="84" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M705" s="35">
         <v>-31</v>
@@ -59535,13 +59831,13 @@
         <v>0</v>
       </c>
       <c r="P705" s="84" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="Q705" s="35">
         <v>1000</v>
       </c>
       <c r="X705" s="84" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="Y705" s="35">
         <v>99999999</v>
@@ -59556,13 +59852,13 @@
         <v>14</v>
       </c>
       <c r="AC705" s="84" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AD705" s="84" t="s">
         <v>1882</v>
       </c>
-      <c r="AD705" s="84" t="s">
-        <v>1883</v>
-      </c>
       <c r="AE705" s="85" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="AI705" s="35">
         <v>1</v>
@@ -59588,13 +59884,13 @@
         <v>1</v>
       </c>
       <c r="G706" s="35" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J706" s="35" t="s">
         <v>1878</v>
       </c>
-      <c r="J706" s="35" t="s">
-        <v>1879</v>
-      </c>
       <c r="K706" s="84" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="M706" s="35">
         <v>-31</v>
@@ -59606,13 +59902,13 @@
         <v>0</v>
       </c>
       <c r="P706" s="84" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="Q706" s="35">
         <v>5000</v>
       </c>
       <c r="X706" s="84" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="Y706" s="35">
         <v>99999999</v>
@@ -59627,13 +59923,13 @@
         <v>14</v>
       </c>
       <c r="AC706" s="84" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AD706" s="84" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AE706" s="85" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="AI706" s="35">
         <v>1</v>
@@ -59659,13 +59955,13 @@
         <v>1</v>
       </c>
       <c r="G707" s="35" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J707" s="35" t="s">
         <v>1878</v>
       </c>
-      <c r="J707" s="35" t="s">
-        <v>1879</v>
-      </c>
       <c r="K707" s="84" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="M707" s="35">
         <v>-31</v>
@@ -59677,13 +59973,13 @@
         <v>0</v>
       </c>
       <c r="P707" s="84" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="Q707" s="35">
         <v>9800</v>
       </c>
       <c r="X707" s="84" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="Y707" s="35">
         <v>99999999</v>
@@ -59698,13 +59994,13 @@
         <v>14</v>
       </c>
       <c r="AC707" s="84" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AD707" s="84" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="AE707" s="85" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="AI707" s="35">
         <v>1</v>
@@ -59730,13 +60026,13 @@
         <v>1</v>
       </c>
       <c r="G708" s="35" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J708" s="35" t="s">
         <v>1878</v>
       </c>
-      <c r="J708" s="35" t="s">
-        <v>1879</v>
-      </c>
       <c r="K708" s="84" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M708" s="35">
         <v>-31</v>
@@ -59748,13 +60044,13 @@
         <v>0</v>
       </c>
       <c r="P708" s="84" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="Q708" s="35">
         <v>19800</v>
       </c>
       <c r="X708" s="84" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="Y708" s="35">
         <v>99999999</v>
@@ -59769,13 +60065,13 @@
         <v>14</v>
       </c>
       <c r="AC708" s="84" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AD708" s="84" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="AE708" s="85" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="AI708" s="35">
         <v>1</v>
@@ -59801,16 +60097,16 @@
         <v>1</v>
       </c>
       <c r="G709" s="99" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H709" s="106" t="s">
         <v>1905</v>
-      </c>
-      <c r="H709" s="106" t="s">
-        <v>1906</v>
       </c>
       <c r="J709" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K709" s="99" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="M709" s="99">
         <v>-31</v>
@@ -59822,19 +60118,19 @@
         <v>0</v>
       </c>
       <c r="P709" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q709" s="99">
         <v>600</v>
       </c>
       <c r="R709" s="99" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="S709" s="88" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="X709" s="99" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="Y709" s="99">
         <v>99999999</v>
@@ -59872,14 +60168,14 @@
         <v>1</v>
       </c>
       <c r="G710" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H710" s="106"/>
       <c r="J710" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K710" s="99" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="M710" s="99">
         <v>-31</v>
@@ -59891,19 +60187,19 @@
         <v>0</v>
       </c>
       <c r="P710" s="99" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Q710" s="99">
         <v>1000</v>
       </c>
       <c r="R710" s="99" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="S710" s="88" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="X710" s="99" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="Y710" s="99">
         <v>99999999</v>
@@ -59941,14 +60237,14 @@
         <v>1</v>
       </c>
       <c r="G711" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H711" s="106"/>
       <c r="J711" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K711" s="99" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="M711" s="99">
         <v>-31</v>
@@ -59960,16 +60256,16 @@
         <v>0</v>
       </c>
       <c r="P711" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q711" s="99">
         <v>1800</v>
       </c>
       <c r="R711" s="99" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="S711" s="88" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="X711" s="99" t="s">
         <v>478</v>
@@ -60010,14 +60306,14 @@
         <v>1</v>
       </c>
       <c r="G712" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H712" s="106"/>
       <c r="J712" s="99" t="s">
         <v>1538</v>
       </c>
       <c r="K712" s="99" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="M712" s="99">
         <v>-31</v>
@@ -60029,16 +60325,16 @@
         <v>0</v>
       </c>
       <c r="P712" s="99" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="Q712" s="99">
         <v>3400</v>
       </c>
       <c r="R712" s="99" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="S712" s="88" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="X712" s="99" t="s">
         <v>478</v>
@@ -60079,14 +60375,14 @@
         <v>1</v>
       </c>
       <c r="G713" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H713" s="106"/>
       <c r="J713" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K713" s="99" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="M713" s="99">
         <v>-31</v>
@@ -60098,16 +60394,16 @@
         <v>0</v>
       </c>
       <c r="P713" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q713" s="99">
         <v>1800</v>
       </c>
       <c r="R713" s="99" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="S713" s="88" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="X713" s="99" t="s">
         <v>478</v>
@@ -60148,14 +60444,14 @@
         <v>1</v>
       </c>
       <c r="G714" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H714" s="106"/>
       <c r="J714" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K714" s="99" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M714" s="99">
         <v>-31</v>
@@ -60167,16 +60463,16 @@
         <v>0</v>
       </c>
       <c r="P714" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q714" s="99">
         <v>3000</v>
       </c>
       <c r="R714" s="99" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="S714" s="88" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="X714" s="99" t="s">
         <v>478</v>
@@ -60217,14 +60513,14 @@
         <v>1</v>
       </c>
       <c r="G715" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H715" s="106"/>
       <c r="J715" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K715" s="99" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="M715" s="99">
         <v>-31</v>
@@ -60236,16 +60532,16 @@
         <v>0</v>
       </c>
       <c r="P715" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q715" s="99">
         <v>4800</v>
       </c>
       <c r="R715" s="99" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="S715" s="88" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="X715" s="99" t="s">
         <v>478</v>
@@ -60286,14 +60582,14 @@
         <v>1</v>
       </c>
       <c r="G716" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H716" s="106"/>
       <c r="J716" s="99" t="s">
         <v>1545</v>
       </c>
       <c r="K716" s="99" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="M716" s="99">
         <v>-31</v>
@@ -60305,16 +60601,16 @@
         <v>0</v>
       </c>
       <c r="P716" s="99" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="Q716" s="99">
         <v>9600</v>
       </c>
       <c r="R716" s="99" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="S716" s="88" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="X716" s="99" t="s">
         <v>478</v>
@@ -60355,14 +60651,14 @@
         <v>1</v>
       </c>
       <c r="G717" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H717" s="106"/>
       <c r="J717" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K717" s="99" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="M717" s="99">
         <v>-31</v>
@@ -60374,16 +60670,16 @@
         <v>0</v>
       </c>
       <c r="P717" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q717" s="99">
         <v>4800</v>
       </c>
       <c r="R717" s="99" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="S717" s="88" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="X717" s="99" t="s">
         <v>478</v>
@@ -60424,14 +60720,14 @@
         <v>1</v>
       </c>
       <c r="G718" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H718" s="106"/>
       <c r="J718" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K718" s="99" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="M718" s="99">
         <v>-31</v>
@@ -60443,16 +60739,16 @@
         <v>0</v>
       </c>
       <c r="P718" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q718" s="99">
         <v>9800</v>
       </c>
       <c r="R718" s="99" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="S718" s="88" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="X718" s="99" t="s">
         <v>478</v>
@@ -60493,14 +60789,14 @@
         <v>1</v>
       </c>
       <c r="G719" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H719" s="106"/>
       <c r="J719" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K719" s="99" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="M719" s="99">
         <v>-31</v>
@@ -60512,16 +60808,16 @@
         <v>0</v>
       </c>
       <c r="P719" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q719" s="99">
         <v>19800</v>
       </c>
       <c r="R719" s="99" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="S719" s="88" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="X719" s="99" t="s">
         <v>478</v>
@@ -60562,14 +60858,14 @@
         <v>1</v>
       </c>
       <c r="G720" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H720" s="106"/>
       <c r="J720" s="99" t="s">
         <v>1552</v>
       </c>
       <c r="K720" s="99" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="M720" s="99">
         <v>-31</v>
@@ -60581,16 +60877,16 @@
         <v>0</v>
       </c>
       <c r="P720" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q720" s="99">
         <v>34400</v>
       </c>
       <c r="R720" s="99" t="s">
-        <v>1938</v>
+        <v>1976</v>
       </c>
       <c r="S720" s="88" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="X720" s="99" t="s">
         <v>478</v>
@@ -60631,14 +60927,14 @@
         <v>1</v>
       </c>
       <c r="G721" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H721" s="106"/>
       <c r="J721" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K721" s="99" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="M721" s="99">
         <v>-31</v>
@@ -60650,16 +60946,16 @@
         <v>0</v>
       </c>
       <c r="P721" s="99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="Q721" s="99">
         <v>9800</v>
       </c>
       <c r="R721" s="99" t="s">
-        <v>1939</v>
+        <v>1973</v>
       </c>
       <c r="S721" s="88" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="X721" s="99" t="s">
         <v>478</v>
@@ -60700,14 +60996,14 @@
         <v>1</v>
       </c>
       <c r="G722" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H722" s="106"/>
       <c r="J722" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K722" s="99" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="M722" s="99">
         <v>-31</v>
@@ -60719,16 +61015,16 @@
         <v>0</v>
       </c>
       <c r="P722" s="99" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Q722" s="99">
         <v>19800</v>
       </c>
       <c r="R722" s="99" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="S722" s="88" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="X722" s="99" t="s">
         <v>478</v>
@@ -60769,14 +61065,14 @@
         <v>1</v>
       </c>
       <c r="G723" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H723" s="106"/>
       <c r="J723" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K723" s="99" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="M723" s="99">
         <v>-31</v>
@@ -60788,16 +61084,16 @@
         <v>0</v>
       </c>
       <c r="P723" s="99" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Q723" s="99">
         <v>49800</v>
       </c>
       <c r="R723" s="99" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="S723" s="88" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="X723" s="99" t="s">
         <v>478</v>
@@ -60838,14 +61134,14 @@
         <v>1</v>
       </c>
       <c r="G724" s="99" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H724" s="106"/>
       <c r="J724" s="99" t="s">
         <v>1441</v>
       </c>
       <c r="K724" s="99" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="M724" s="99">
         <v>-31</v>
@@ -60857,19 +61153,19 @@
         <v>0</v>
       </c>
       <c r="P724" s="99" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Q724" s="99">
         <v>79400</v>
       </c>
       <c r="R724" s="100" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="S724" s="88" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="X724" s="99" t="s">
-        <v>478</v>
+        <v>1991</v>
       </c>
       <c r="Y724" s="99">
         <v>99999999</v>
@@ -60893,6 +61189,892 @@
         <v>1</v>
       </c>
       <c r="AN724" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:40">
+      <c r="A725" s="21">
+        <v>724</v>
+      </c>
+      <c r="B725" s="35">
+        <v>10641</v>
+      </c>
+      <c r="F725" s="35">
+        <v>1</v>
+      </c>
+      <c r="G725" s="35" t="s">
+        <v>1955</v>
+      </c>
+      <c r="M725" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N725" s="35">
+        <v>0</v>
+      </c>
+      <c r="O725" s="35">
+        <v>0</v>
+      </c>
+      <c r="P725" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q725" s="35">
+        <v>3000</v>
+      </c>
+      <c r="X725" s="35" t="s">
+        <v>1957</v>
+      </c>
+      <c r="Y725" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z725" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA725" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB725" s="35">
+        <v>14</v>
+      </c>
+      <c r="AI725" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ725" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM725" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN725" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:40">
+      <c r="A726" s="21">
+        <v>725</v>
+      </c>
+      <c r="B726" s="35">
+        <v>10642</v>
+      </c>
+      <c r="F726" s="35">
+        <v>1</v>
+      </c>
+      <c r="G726" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H726" s="107" t="s">
+        <v>1959</v>
+      </c>
+      <c r="J726" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K726" s="35" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M726" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N726" s="35">
+        <v>0</v>
+      </c>
+      <c r="O726" s="35">
+        <v>0</v>
+      </c>
+      <c r="P726" s="35" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q726" s="35">
+        <v>1800</v>
+      </c>
+      <c r="R726" s="35" t="s">
+        <v>1975</v>
+      </c>
+      <c r="S726" s="36" t="s">
+        <v>1979</v>
+      </c>
+      <c r="X726" s="35" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Y726" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z726" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA726" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB726" s="35">
+        <v>86</v>
+      </c>
+      <c r="AI726" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ726" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM726" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN726" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:40">
+      <c r="A727" s="21">
+        <v>726</v>
+      </c>
+      <c r="B727" s="35">
+        <v>10643</v>
+      </c>
+      <c r="F727" s="35">
+        <v>1</v>
+      </c>
+      <c r="G727" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H727" s="107"/>
+      <c r="J727" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K727" s="35" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M727" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N727" s="35">
+        <v>0</v>
+      </c>
+      <c r="O727" s="35">
+        <v>0</v>
+      </c>
+      <c r="P727" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q727" s="35">
+        <v>3000</v>
+      </c>
+      <c r="R727" s="35" t="s">
+        <v>1975</v>
+      </c>
+      <c r="S727" s="36" t="s">
+        <v>1980</v>
+      </c>
+      <c r="X727" s="35" t="s">
+        <v>1991</v>
+      </c>
+      <c r="Y727" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z727" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA727" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB727" s="35">
+        <v>86</v>
+      </c>
+      <c r="AI727" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ727" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM727" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN727" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:40">
+      <c r="A728" s="21">
+        <v>727</v>
+      </c>
+      <c r="B728" s="35">
+        <v>10644</v>
+      </c>
+      <c r="F728" s="35">
+        <v>1</v>
+      </c>
+      <c r="G728" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H728" s="107"/>
+      <c r="J728" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K728" s="35" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M728" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N728" s="35">
+        <v>0</v>
+      </c>
+      <c r="O728" s="35">
+        <v>0</v>
+      </c>
+      <c r="P728" s="35" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q728" s="35">
+        <v>4800</v>
+      </c>
+      <c r="R728" s="35" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S728" s="36" t="s">
+        <v>1981</v>
+      </c>
+      <c r="X728" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y728" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z728" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA728" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB728" s="35">
+        <v>86</v>
+      </c>
+      <c r="AI728" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ728" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM728" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN728" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:40">
+      <c r="A729" s="21">
+        <v>728</v>
+      </c>
+      <c r="B729" s="35">
+        <v>10645</v>
+      </c>
+      <c r="F729" s="35">
+        <v>1</v>
+      </c>
+      <c r="G729" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H729" s="107"/>
+      <c r="J729" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K729" s="35" t="s">
+        <v>1963</v>
+      </c>
+      <c r="M729" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N729" s="35">
+        <v>0</v>
+      </c>
+      <c r="O729" s="35">
+        <v>0</v>
+      </c>
+      <c r="P729" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q729" s="35">
+        <v>9600</v>
+      </c>
+      <c r="R729" s="35" t="s">
+        <v>1977</v>
+      </c>
+      <c r="S729" s="36" t="s">
+        <v>1982</v>
+      </c>
+      <c r="X729" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y729" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z729" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA729" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB729" s="35">
+        <v>86</v>
+      </c>
+      <c r="AI729" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ729" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM729" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN729" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:40">
+      <c r="A730" s="21">
+        <v>729</v>
+      </c>
+      <c r="B730" s="35">
+        <v>10646</v>
+      </c>
+      <c r="F730" s="35">
+        <v>1</v>
+      </c>
+      <c r="G730" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H730" s="107"/>
+      <c r="J730" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K730" s="35" t="s">
+        <v>1964</v>
+      </c>
+      <c r="M730" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N730" s="35">
+        <v>0</v>
+      </c>
+      <c r="O730" s="35">
+        <v>0</v>
+      </c>
+      <c r="P730" s="35" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q730" s="35">
+        <v>4800</v>
+      </c>
+      <c r="R730" s="35" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S730" s="36" t="s">
+        <v>1983</v>
+      </c>
+      <c r="X730" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y730" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z730" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA730" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB730" s="35">
+        <v>87</v>
+      </c>
+      <c r="AI730" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ730" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM730" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN730" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:40">
+      <c r="A731" s="21">
+        <v>730</v>
+      </c>
+      <c r="B731" s="35">
+        <v>10647</v>
+      </c>
+      <c r="F731" s="35">
+        <v>1</v>
+      </c>
+      <c r="G731" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H731" s="107"/>
+      <c r="J731" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K731" s="35" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M731" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N731" s="35">
+        <v>0</v>
+      </c>
+      <c r="O731" s="35">
+        <v>0</v>
+      </c>
+      <c r="P731" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q731" s="35">
+        <v>9800</v>
+      </c>
+      <c r="R731" s="35" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S731" s="36" t="s">
+        <v>1984</v>
+      </c>
+      <c r="X731" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y731" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z731" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA731" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB731" s="35">
+        <v>87</v>
+      </c>
+      <c r="AI731" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ731" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM731" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN731" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:40">
+      <c r="A732" s="21">
+        <v>731</v>
+      </c>
+      <c r="B732" s="35">
+        <v>10648</v>
+      </c>
+      <c r="F732" s="35">
+        <v>1</v>
+      </c>
+      <c r="G732" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H732" s="107"/>
+      <c r="J732" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K732" s="35" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M732" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N732" s="35">
+        <v>0</v>
+      </c>
+      <c r="O732" s="35">
+        <v>0</v>
+      </c>
+      <c r="P732" s="35" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q732" s="35">
+        <v>19800</v>
+      </c>
+      <c r="R732" s="35" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S732" s="36" t="s">
+        <v>1985</v>
+      </c>
+      <c r="X732" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y732" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z732" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA732" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB732" s="35">
+        <v>87</v>
+      </c>
+      <c r="AI732" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ732" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM732" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN732" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:40">
+      <c r="A733" s="21">
+        <v>732</v>
+      </c>
+      <c r="B733" s="35">
+        <v>10649</v>
+      </c>
+      <c r="F733" s="35">
+        <v>1</v>
+      </c>
+      <c r="G733" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H733" s="107"/>
+      <c r="J733" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K733" s="35" t="s">
+        <v>1967</v>
+      </c>
+      <c r="M733" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N733" s="35">
+        <v>0</v>
+      </c>
+      <c r="O733" s="35">
+        <v>0</v>
+      </c>
+      <c r="P733" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q733" s="35">
+        <v>34400</v>
+      </c>
+      <c r="R733" s="35" t="s">
+        <v>1977</v>
+      </c>
+      <c r="S733" s="36" t="s">
+        <v>1986</v>
+      </c>
+      <c r="X733" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y733" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z733" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA733" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB733" s="35">
+        <v>87</v>
+      </c>
+      <c r="AI733" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ733" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM733" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN733" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:40">
+      <c r="A734" s="21">
+        <v>733</v>
+      </c>
+      <c r="B734" s="35">
+        <v>10650</v>
+      </c>
+      <c r="F734" s="35">
+        <v>1</v>
+      </c>
+      <c r="G734" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H734" s="107"/>
+      <c r="J734" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K734" s="35" t="s">
+        <v>1968</v>
+      </c>
+      <c r="M734" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N734" s="35">
+        <v>0</v>
+      </c>
+      <c r="O734" s="35">
+        <v>0</v>
+      </c>
+      <c r="P734" s="35" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q734" s="35">
+        <v>9800</v>
+      </c>
+      <c r="R734" s="35" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S734" s="36" t="s">
+        <v>1987</v>
+      </c>
+      <c r="X734" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y734" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z734" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA734" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB734" s="35">
+        <v>88</v>
+      </c>
+      <c r="AI734" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ734" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM734" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN734" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:40">
+      <c r="A735" s="21">
+        <v>734</v>
+      </c>
+      <c r="B735" s="35">
+        <v>10651</v>
+      </c>
+      <c r="F735" s="35">
+        <v>1</v>
+      </c>
+      <c r="G735" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H735" s="107"/>
+      <c r="J735" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K735" s="35" t="s">
+        <v>1969</v>
+      </c>
+      <c r="M735" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N735" s="35">
+        <v>0</v>
+      </c>
+      <c r="O735" s="35">
+        <v>0</v>
+      </c>
+      <c r="P735" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q735" s="35">
+        <v>19800</v>
+      </c>
+      <c r="R735" s="35" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S735" s="36" t="s">
+        <v>1988</v>
+      </c>
+      <c r="X735" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y735" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z735" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA735" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB735" s="35">
+        <v>88</v>
+      </c>
+      <c r="AI735" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ735" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM735" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN735" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:40">
+      <c r="A736" s="21">
+        <v>735</v>
+      </c>
+      <c r="B736" s="35">
+        <v>10652</v>
+      </c>
+      <c r="F736" s="35">
+        <v>1</v>
+      </c>
+      <c r="G736" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H736" s="107"/>
+      <c r="J736" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K736" s="35" t="s">
+        <v>1970</v>
+      </c>
+      <c r="M736" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N736" s="35">
+        <v>0</v>
+      </c>
+      <c r="O736" s="35">
+        <v>0</v>
+      </c>
+      <c r="P736" s="35" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q736" s="35">
+        <v>49800</v>
+      </c>
+      <c r="R736" s="35" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S736" s="36" t="s">
+        <v>1989</v>
+      </c>
+      <c r="X736" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y736" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z736" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA736" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB736" s="35">
+        <v>88</v>
+      </c>
+      <c r="AI736" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ736" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM736" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN736" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:40">
+      <c r="A737" s="21">
+        <v>736</v>
+      </c>
+      <c r="B737" s="35">
+        <v>10653</v>
+      </c>
+      <c r="F737" s="35">
+        <v>1</v>
+      </c>
+      <c r="G737" s="35" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H737" s="107"/>
+      <c r="J737" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K737" s="35" t="s">
+        <v>1971</v>
+      </c>
+      <c r="M737" s="35">
+        <v>-31</v>
+      </c>
+      <c r="N737" s="35">
+        <v>0</v>
+      </c>
+      <c r="O737" s="35">
+        <v>0</v>
+      </c>
+      <c r="P737" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="Q737" s="35">
+        <v>79400</v>
+      </c>
+      <c r="R737" s="35" t="s">
+        <v>1978</v>
+      </c>
+      <c r="S737" s="36" t="s">
+        <v>1990</v>
+      </c>
+      <c r="X737" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y737" s="35">
+        <v>99999999</v>
+      </c>
+      <c r="Z737" s="35">
+        <v>1635206400</v>
+      </c>
+      <c r="AA737" s="35">
+        <v>2552233600</v>
+      </c>
+      <c r="AB737" s="35">
+        <v>88</v>
+      </c>
+      <c r="AI737" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ737" s="35">
+        <v>1</v>
+      </c>
+      <c r="AM737" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN737" s="35">
         <v>1</v>
       </c>
     </row>
@@ -60900,7 +62082,8 @@
   <sortState ref="A542:AO548">
     <sortCondition descending="1" ref="A542"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H726:H737"/>
     <mergeCell ref="H683:H688"/>
     <mergeCell ref="H689:H694"/>
     <mergeCell ref="H655:H661"/>
@@ -60916,10 +62099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -61904,7 +63087,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -61918,7 +63101,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="92" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -62057,8 +63240,8 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>1729</v>
+      <c r="B80" s="108" t="s">
+        <v>1993</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -62072,7 +63255,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -62086,7 +63269,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -62100,7 +63283,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -62114,7 +63297,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -62128,7 +63311,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="87" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -62142,12 +63325,54 @@
         <v>85</v>
       </c>
       <c r="B86" s="87" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="109" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="109" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="109" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>0</v>
       </c>
     </row>
@@ -62195,7 +63420,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -62210,19 +63435,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1737</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1738</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -62237,7 +63462,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -62282,7 +63507,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="12" customFormat="1">
@@ -62302,7 +63527,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -62332,19 +63557,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>1741</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>1742</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>1743</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>1744</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>1745</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -62373,7 +63598,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -62400,22 +63625,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
+        <v>1745</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>1746</v>
       </c>
-      <c r="R3" s="17" t="s">
-        <v>1747</v>
-      </c>
       <c r="T3" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -62444,7 +63669,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -62471,22 +63696,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="R4" s="17" t="s">
         <v>1749</v>
       </c>
-      <c r="R4" s="17" t="s">
-        <v>1750</v>
-      </c>
       <c r="T4" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -62515,7 +63740,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -62542,22 +63767,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="R5" s="17" t="s">
         <v>1752</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>1753</v>
-      </c>
       <c r="T5" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -62586,7 +63811,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -62613,22 +63838,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
+        <v>1754</v>
+      </c>
+      <c r="R6" s="17" t="s">
         <v>1755</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>1756</v>
-      </c>
       <c r="T6" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -62657,7 +63882,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -62684,22 +63909,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
+        <v>1757</v>
+      </c>
+      <c r="R7" s="17" t="s">
         <v>1758</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>1759</v>
-      </c>
       <c r="T7" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -62723,7 +63948,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -62750,22 +63975,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
+        <v>1760</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>1761</v>
       </c>
-      <c r="R8" s="17" t="s">
-        <v>1762</v>
-      </c>
       <c r="T8" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>1744</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>1745</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -62789,7 +64014,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -62816,19 +64041,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="R9" s="17" t="s">
         <v>1752</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>1753</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -62837,7 +64062,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="12" customFormat="1">
@@ -62855,7 +64080,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -62885,16 +64110,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -62903,7 +64128,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="12" customFormat="1">
@@ -62921,7 +64146,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -62948,22 +64173,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
+        <v>1745</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>1746</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>1747</v>
-      </c>
       <c r="T11" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -62992,7 +64217,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -63019,22 +64244,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>1767</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>1768</v>
-      </c>
       <c r="T12" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -63063,7 +64288,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -63090,22 +64315,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1769</v>
+      </c>
+      <c r="R13" s="17" t="s">
         <v>1770</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="T13" s="17" t="s">
+        <v>1742</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>1771</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>1743</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1772</v>
-      </c>
       <c r="V13" s="12" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -63134,7 +64359,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -63161,22 +64386,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>1773</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="T14" s="17" t="s">
         <v>1774</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="U14" s="12" t="s">
         <v>1775</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="V14" s="12" t="s">
         <v>1776</v>
       </c>
-      <c r="V14" s="12" t="s">
-        <v>1777</v>
-      </c>
       <c r="W14" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -63200,7 +64425,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -63230,21 +64455,21 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
+        <v>1760</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>1761</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>1762</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W15" s="12" t="s">
         <v>1744</v>
       </c>
-      <c r="W15" s="12" t="s">
-        <v>1745</v>
-      </c>
       <c r="Z15" s="12">
         <v>1</v>
       </c>
@@ -63252,7 +64477,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="12" customFormat="1">
@@ -63275,7 +64500,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -63302,22 +64527,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
+        <v>1778</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>1779</v>
       </c>
-      <c r="R16" s="17" t="s">
-        <v>1780</v>
-      </c>
       <c r="T16" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>1744</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>1745</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -63341,7 +64566,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -63368,22 +64593,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
+        <v>1780</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>1781</v>
       </c>
-      <c r="R17" s="17" t="s">
-        <v>1782</v>
-      </c>
       <c r="T17" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -63407,7 +64632,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -63434,22 +64659,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
+        <v>1782</v>
+      </c>
+      <c r="R18" s="17" t="s">
         <v>1783</v>
       </c>
-      <c r="R18" s="17" t="s">
-        <v>1784</v>
-      </c>
       <c r="T18" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -63473,7 +64698,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -63500,22 +64725,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
+        <v>1784</v>
+      </c>
+      <c r="R19" s="17" t="s">
         <v>1785</v>
       </c>
-      <c r="R19" s="17" t="s">
-        <v>1786</v>
-      </c>
       <c r="T19" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -63539,7 +64764,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -63566,22 +64791,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
+        <v>1787</v>
+      </c>
+      <c r="R20" s="17" t="s">
         <v>1788</v>
       </c>
-      <c r="R20" s="17" t="s">
-        <v>1789</v>
-      </c>
       <c r="T20" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -63605,7 +64830,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -63632,22 +64857,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
+        <v>1760</v>
+      </c>
+      <c r="R21" s="18" t="s">
         <v>1761</v>
       </c>
-      <c r="R21" s="18" t="s">
-        <v>1762</v>
-      </c>
       <c r="T21" s="18" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W21" s="13" t="s">
         <v>1744</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>1745</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -63671,7 +64896,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -63698,20 +64923,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
+        <v>1751</v>
+      </c>
+      <c r="R22" s="17" t="s">
         <v>1752</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>1753</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -63735,7 +64960,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -63765,17 +64990,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W23" s="12" t="s">
         <v>1744</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>1745</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -63792,14 +65017,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -63829,21 +65054,21 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
+        <v>1760</v>
+      </c>
+      <c r="R24" s="17" t="s">
         <v>1761</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>1762</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W24" s="12" t="s">
         <v>1744</v>
       </c>
-      <c r="W24" s="12" t="s">
-        <v>1745</v>
-      </c>
       <c r="Z24" s="12">
         <v>1</v>
       </c>
@@ -63851,7 +65076,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="25" spans="1:30" s="12" customFormat="1">
@@ -63874,7 +65099,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -63901,22 +65126,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
+        <v>1790</v>
+      </c>
+      <c r="R25" s="17" t="s">
         <v>1791</v>
       </c>
-      <c r="R25" s="17" t="s">
-        <v>1792</v>
-      </c>
       <c r="T25" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -63983,13 +65208,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1736</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -64001,16 +65226,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1796</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1797</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -64051,7 +65276,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -64063,7 +65288,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -64072,31 +65297,31 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>1802</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>1803</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
@@ -64107,7 +65332,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -64119,7 +65344,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -64128,7 +65353,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -64137,22 +65362,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W3" s="2">
         <v>8.3000000000000007</v>
@@ -64166,7 +65391,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -64191,19 +65416,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>1808</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>1809</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="2" customFormat="1">
@@ -64214,7 +65439,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -64241,10 +65466,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1">
@@ -64255,7 +65480,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -64282,10 +65507,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1">
@@ -64296,7 +65521,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -64308,7 +65533,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -64317,7 +65542,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -64326,22 +65551,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W7" s="2">
         <v>8.3000000000000007</v>
@@ -64355,10 +65580,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -64370,7 +65595,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -64385,22 +65610,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="S8" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1">
@@ -64411,10 +65636,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -64429,16 +65654,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="2" customFormat="1">
@@ -64449,10 +65674,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -64467,16 +65692,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="2" customFormat="1">
@@ -64487,10 +65712,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -64505,16 +65730,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="2" customFormat="1">
@@ -64525,10 +65750,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -64543,16 +65768,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1">
@@ -64563,7 +65788,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -64587,16 +65812,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -64610,7 +65835,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -64634,16 +65859,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -64657,10 +65882,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -64681,16 +65906,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -64704,10 +65929,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -64723,13 +65948,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1">
@@ -64740,10 +65965,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -64759,13 +65984,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1">
@@ -64776,7 +66001,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -64795,13 +66020,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1">
@@ -64812,7 +66037,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -64831,13 +66056,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1">
@@ -64848,7 +66073,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -64866,16 +66091,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1">
@@ -64886,7 +66111,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -64904,16 +66129,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
   </sheetData>

--- a/config_10.26/shoping_config.xlsx
+++ b/config_10.26/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7946,7 +7946,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8253,6 +8253,18 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8267,15 +8279,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14171,11 +14174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO737"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P711" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="X666" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R735" sqref="R735"/>
+      <selection pane="bottomRight" activeCell="AA678" sqref="AA678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -56369,7 +56372,7 @@
       <c r="G655" s="90" t="s">
         <v>1897</v>
       </c>
-      <c r="H655" s="104" t="s">
+      <c r="H655" s="108" t="s">
         <v>1874</v>
       </c>
       <c r="K655" s="90" t="s">
@@ -56437,7 +56440,7 @@
       <c r="G656" s="89" t="s">
         <v>1898</v>
       </c>
-      <c r="H656" s="105"/>
+      <c r="H656" s="109"/>
       <c r="K656" s="90" t="s">
         <v>1608</v>
       </c>
@@ -56503,7 +56506,7 @@
       <c r="G657" s="89" t="s">
         <v>1899</v>
       </c>
-      <c r="H657" s="105"/>
+      <c r="H657" s="109"/>
       <c r="K657" s="90" t="s">
         <v>1609</v>
       </c>
@@ -56569,7 +56572,7 @@
       <c r="G658" s="89" t="s">
         <v>1900</v>
       </c>
-      <c r="H658" s="105"/>
+      <c r="H658" s="109"/>
       <c r="K658" s="90" t="s">
         <v>1611</v>
       </c>
@@ -56635,7 +56638,7 @@
       <c r="G659" s="89" t="s">
         <v>1901</v>
       </c>
-      <c r="H659" s="105"/>
+      <c r="H659" s="109"/>
       <c r="K659" s="90" t="s">
         <v>1612</v>
       </c>
@@ -56701,7 +56704,7 @@
       <c r="G660" s="89" t="s">
         <v>1902</v>
       </c>
-      <c r="H660" s="105"/>
+      <c r="H660" s="109"/>
       <c r="K660" s="90" t="s">
         <v>1613</v>
       </c>
@@ -56767,7 +56770,7 @@
       <c r="G661" s="89" t="s">
         <v>1903</v>
       </c>
-      <c r="H661" s="105"/>
+      <c r="H661" s="109"/>
       <c r="K661" s="90" t="s">
         <v>1615</v>
       </c>
@@ -57514,8 +57517,8 @@
       <c r="AA671" s="94">
         <v>1635782399</v>
       </c>
-      <c r="AB671" s="91">
-        <v>80</v>
+      <c r="AB671" s="102">
+        <v>76</v>
       </c>
       <c r="AI671" s="91">
         <v>1</v>
@@ -57585,8 +57588,8 @@
       <c r="AA672" s="94">
         <v>1635782399</v>
       </c>
-      <c r="AB672" s="91">
-        <v>80</v>
+      <c r="AB672" s="102">
+        <v>76</v>
       </c>
       <c r="AI672" s="91">
         <v>1</v>
@@ -57656,8 +57659,8 @@
       <c r="AA673" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB673" s="91">
-        <v>80</v>
+      <c r="AB673" s="102">
+        <v>76</v>
       </c>
       <c r="AI673" s="91">
         <v>1</v>
@@ -57727,8 +57730,8 @@
       <c r="AA674" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB674" s="91">
-        <v>81</v>
+      <c r="AB674" s="102">
+        <v>77</v>
       </c>
       <c r="AI674" s="91">
         <v>1</v>
@@ -57798,8 +57801,8 @@
       <c r="AA675" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB675" s="91">
-        <v>81</v>
+      <c r="AB675" s="102">
+        <v>77</v>
       </c>
       <c r="AI675" s="91">
         <v>1</v>
@@ -57869,8 +57872,8 @@
       <c r="AA676" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB676" s="91">
-        <v>81</v>
+      <c r="AB676" s="102">
+        <v>77</v>
       </c>
       <c r="AI676" s="91">
         <v>1</v>
@@ -57940,8 +57943,8 @@
       <c r="AA677" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB677" s="91">
-        <v>82</v>
+      <c r="AB677" s="102">
+        <v>78</v>
       </c>
       <c r="AI677" s="91">
         <v>1</v>
@@ -58011,8 +58014,8 @@
       <c r="AA678" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB678" s="91">
-        <v>82</v>
+      <c r="AB678" s="102">
+        <v>78</v>
       </c>
       <c r="AI678" s="91">
         <v>1</v>
@@ -58082,8 +58085,8 @@
       <c r="AA679" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB679" s="91">
-        <v>82</v>
+      <c r="AB679" s="102">
+        <v>78</v>
       </c>
       <c r="AI679" s="91">
         <v>1</v>
@@ -58153,8 +58156,8 @@
       <c r="AA680" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB680" s="91">
-        <v>83</v>
+      <c r="AB680" s="102">
+        <v>79</v>
       </c>
       <c r="AI680" s="91">
         <v>1</v>
@@ -58224,8 +58227,8 @@
       <c r="AA681" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB681" s="91">
-        <v>83</v>
+      <c r="AB681" s="102">
+        <v>79</v>
       </c>
       <c r="AI681" s="91">
         <v>1</v>
@@ -58295,8 +58298,8 @@
       <c r="AA682" s="101">
         <v>1635782399</v>
       </c>
-      <c r="AB682" s="91">
-        <v>83</v>
+      <c r="AB682" s="102">
+        <v>79</v>
       </c>
       <c r="AI682" s="91">
         <v>1</v>
@@ -58324,7 +58327,7 @@
       <c r="G683" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="102" t="s">
+      <c r="H683" s="106" t="s">
         <v>1869</v>
       </c>
       <c r="K683" s="28" t="s">
@@ -58392,7 +58395,7 @@
       <c r="G684" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="102"/>
+      <c r="H684" s="106"/>
       <c r="K684" s="28" t="s">
         <v>1575</v>
       </c>
@@ -58458,7 +58461,7 @@
       <c r="G685" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="102"/>
+      <c r="H685" s="106"/>
       <c r="K685" s="28" t="s">
         <v>1577</v>
       </c>
@@ -58524,7 +58527,7 @@
       <c r="G686" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="102"/>
+      <c r="H686" s="106"/>
       <c r="K686" s="28" t="s">
         <v>1579</v>
       </c>
@@ -58590,7 +58593,7 @@
       <c r="G687" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="102"/>
+      <c r="H687" s="106"/>
       <c r="K687" s="28" t="s">
         <v>1581</v>
       </c>
@@ -58656,7 +58659,7 @@
       <c r="G688" s="28" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="102"/>
+      <c r="H688" s="106"/>
       <c r="K688" s="28" t="s">
         <v>1583</v>
       </c>
@@ -58722,7 +58725,7 @@
       <c r="G689" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="102" t="s">
+      <c r="H689" s="106" t="s">
         <v>1870</v>
       </c>
       <c r="K689" s="28" t="s">
@@ -58790,7 +58793,7 @@
       <c r="G690" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="103"/>
+      <c r="H690" s="107"/>
       <c r="K690" s="28" t="s">
         <v>1575</v>
       </c>
@@ -58856,7 +58859,7 @@
       <c r="G691" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="103"/>
+      <c r="H691" s="107"/>
       <c r="K691" s="28" t="s">
         <v>1577</v>
       </c>
@@ -58922,7 +58925,7 @@
       <c r="G692" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="103"/>
+      <c r="H692" s="107"/>
       <c r="K692" s="28" t="s">
         <v>1579</v>
       </c>
@@ -58988,7 +58991,7 @@
       <c r="G693" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="103"/>
+      <c r="H693" s="107"/>
       <c r="K693" s="28" t="s">
         <v>1581</v>
       </c>
@@ -59054,7 +59057,7 @@
       <c r="G694" s="28" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="103"/>
+      <c r="H694" s="107"/>
       <c r="K694" s="28" t="s">
         <v>1583</v>
       </c>
@@ -59351,7 +59354,7 @@
       <c r="G698" s="97" t="s">
         <v>1897</v>
       </c>
-      <c r="H698" s="104" t="s">
+      <c r="H698" s="108" t="s">
         <v>1875</v>
       </c>
       <c r="K698" s="93" t="s">
@@ -59419,7 +59422,7 @@
       <c r="G699" s="96" t="s">
         <v>1898</v>
       </c>
-      <c r="H699" s="105"/>
+      <c r="H699" s="109"/>
       <c r="K699" s="93" t="s">
         <v>1608</v>
       </c>
@@ -59485,7 +59488,7 @@
       <c r="G700" s="96" t="s">
         <v>1899</v>
       </c>
-      <c r="H700" s="105"/>
+      <c r="H700" s="109"/>
       <c r="K700" s="93" t="s">
         <v>1609</v>
       </c>
@@ -59551,7 +59554,7 @@
       <c r="G701" s="96" t="s">
         <v>1900</v>
       </c>
-      <c r="H701" s="105"/>
+      <c r="H701" s="109"/>
       <c r="K701" s="93" t="s">
         <v>1611</v>
       </c>
@@ -59617,7 +59620,7 @@
       <c r="G702" s="96" t="s">
         <v>1901</v>
       </c>
-      <c r="H702" s="105"/>
+      <c r="H702" s="109"/>
       <c r="K702" s="93" t="s">
         <v>1612</v>
       </c>
@@ -59683,7 +59686,7 @@
       <c r="G703" s="96" t="s">
         <v>1902</v>
       </c>
-      <c r="H703" s="105"/>
+      <c r="H703" s="109"/>
       <c r="K703" s="93" t="s">
         <v>1613</v>
       </c>
@@ -59749,7 +59752,7 @@
       <c r="G704" s="96" t="s">
         <v>1903</v>
       </c>
-      <c r="H704" s="105"/>
+      <c r="H704" s="109"/>
       <c r="K704" s="93" t="s">
         <v>1615</v>
       </c>
@@ -60099,7 +60102,7 @@
       <c r="G709" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H709" s="106" t="s">
+      <c r="H709" s="110" t="s">
         <v>1905</v>
       </c>
       <c r="J709" s="99" t="s">
@@ -60170,7 +60173,7 @@
       <c r="G710" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H710" s="106"/>
+      <c r="H710" s="110"/>
       <c r="J710" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60239,7 +60242,7 @@
       <c r="G711" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H711" s="106"/>
+      <c r="H711" s="110"/>
       <c r="J711" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60308,7 +60311,7 @@
       <c r="G712" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H712" s="106"/>
+      <c r="H712" s="110"/>
       <c r="J712" s="99" t="s">
         <v>1538</v>
       </c>
@@ -60377,7 +60380,7 @@
       <c r="G713" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H713" s="106"/>
+      <c r="H713" s="110"/>
       <c r="J713" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60446,7 +60449,7 @@
       <c r="G714" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H714" s="106"/>
+      <c r="H714" s="110"/>
       <c r="J714" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60515,7 +60518,7 @@
       <c r="G715" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H715" s="106"/>
+      <c r="H715" s="110"/>
       <c r="J715" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60584,7 +60587,7 @@
       <c r="G716" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H716" s="106"/>
+      <c r="H716" s="110"/>
       <c r="J716" s="99" t="s">
         <v>1545</v>
       </c>
@@ -60653,7 +60656,7 @@
       <c r="G717" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H717" s="106"/>
+      <c r="H717" s="110"/>
       <c r="J717" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60722,7 +60725,7 @@
       <c r="G718" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H718" s="106"/>
+      <c r="H718" s="110"/>
       <c r="J718" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60791,7 +60794,7 @@
       <c r="G719" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H719" s="106"/>
+      <c r="H719" s="110"/>
       <c r="J719" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60860,7 +60863,7 @@
       <c r="G720" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H720" s="106"/>
+      <c r="H720" s="110"/>
       <c r="J720" s="99" t="s">
         <v>1552</v>
       </c>
@@ -60929,7 +60932,7 @@
       <c r="G721" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H721" s="106"/>
+      <c r="H721" s="110"/>
       <c r="J721" s="99" t="s">
         <v>1441</v>
       </c>
@@ -60998,7 +61001,7 @@
       <c r="G722" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H722" s="106"/>
+      <c r="H722" s="110"/>
       <c r="J722" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61067,7 +61070,7 @@
       <c r="G723" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H723" s="106"/>
+      <c r="H723" s="110"/>
       <c r="J723" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61136,7 +61139,7 @@
       <c r="G724" s="99" t="s">
         <v>1904</v>
       </c>
-      <c r="H724" s="106"/>
+      <c r="H724" s="110"/>
       <c r="J724" s="99" t="s">
         <v>1441</v>
       </c>
@@ -61261,7 +61264,7 @@
       <c r="G726" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H726" s="107" t="s">
+      <c r="H726" s="105" t="s">
         <v>1959</v>
       </c>
       <c r="J726" s="21" t="s">
@@ -61332,7 +61335,7 @@
       <c r="G727" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H727" s="107"/>
+      <c r="H727" s="105"/>
       <c r="J727" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61401,7 +61404,7 @@
       <c r="G728" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H728" s="107"/>
+      <c r="H728" s="105"/>
       <c r="J728" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61470,7 +61473,7 @@
       <c r="G729" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H729" s="107"/>
+      <c r="H729" s="105"/>
       <c r="J729" s="21" t="s">
         <v>1545</v>
       </c>
@@ -61539,7 +61542,7 @@
       <c r="G730" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H730" s="107"/>
+      <c r="H730" s="105"/>
       <c r="J730" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61608,7 +61611,7 @@
       <c r="G731" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H731" s="107"/>
+      <c r="H731" s="105"/>
       <c r="J731" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61677,7 +61680,7 @@
       <c r="G732" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H732" s="107"/>
+      <c r="H732" s="105"/>
       <c r="J732" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61746,7 +61749,7 @@
       <c r="G733" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H733" s="107"/>
+      <c r="H733" s="105"/>
       <c r="J733" s="21" t="s">
         <v>1552</v>
       </c>
@@ -61815,7 +61818,7 @@
       <c r="G734" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H734" s="107"/>
+      <c r="H734" s="105"/>
       <c r="J734" s="21" t="s">
         <v>1441</v>
       </c>
@@ -61884,7 +61887,7 @@
       <c r="G735" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H735" s="107"/>
+      <c r="H735" s="105"/>
       <c r="J735" s="21" t="s">
         <v>1441</v>
       </c>
@@ -61953,7 +61956,7 @@
       <c r="G736" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H736" s="107"/>
+      <c r="H736" s="105"/>
       <c r="J736" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62022,7 +62025,7 @@
       <c r="G737" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="H737" s="107"/>
+      <c r="H737" s="105"/>
       <c r="J737" s="21" t="s">
         <v>1441</v>
       </c>
@@ -62101,8 +62104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B77" sqref="A77:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -63240,7 +63243,7 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="108" t="s">
+      <c r="B80" s="103" t="s">
         <v>1993</v>
       </c>
       <c r="C80" s="2">
@@ -63338,7 +63341,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="109" t="s">
+      <c r="B87" s="104" t="s">
         <v>1996</v>
       </c>
       <c r="C87">
@@ -63352,7 +63355,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="109" t="s">
+      <c r="B88" s="104" t="s">
         <v>1994</v>
       </c>
       <c r="C88">
@@ -63366,7 +63369,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="109" t="s">
+      <c r="B89" s="104" t="s">
         <v>1995</v>
       </c>
       <c r="C89">
